--- a/res_nodict/solola.xlsx
+++ b/res_nodict/solola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://copregatit-my.sharepoint.com/personal/shannon_cap_transparencia_gob_gt/Documents/Documentos/GitHub/sistematizacion_test/res_nodict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A8A103EC8C8349D25C8733B81C5C5E736F5851C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A43A390-9DD4-4C62-81BC-00BCAB73788A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_A8A103EC8C8349D25C8733B81C5C5E736F5851C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{448D07A7-FA6E-4F08-ACDF-D9C1BA19E223}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="855" windowWidth="19845" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="690" windowWidth="19845" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1" sheetId="1" r:id="rId1"/>
@@ -297,12 +297,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:ext cx="4867275" cy="5029200"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -321,6 +321,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629399" y="590550"/>
+          <a:ext cx="4867275" cy="5029200"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -335,12 +339,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="5715000"/>
+    <xdr:ext cx="4953000" cy="4962525"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1" descr="Picture">
@@ -360,8 +364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="228600"/>
-          <a:ext cx="5715000" cy="5715000"/>
+          <a:off x="6677025" y="1104899"/>
+          <a:ext cx="4953000" cy="4962525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>

--- a/res_nodict/solola.xlsx
+++ b/res_nodict/solola.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="P2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -153,13 +153,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -183,13 +183,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -768,12 +768,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1060,6 +1060,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>